--- a/PyScripts/Parsers/Industries/Education/Response/8. Ответственные.xlsx
+++ b/PyScripts/Parsers/Industries/Education/Response/8. Ответственные.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4B401-78B8-9F49-8CFF-FC0D7B021E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="296">
   <si>
     <t>Ответственные
 за исполнение мероприятий Плана реализации государственной программы Воронежской области</t>
@@ -263,9 +264,6 @@
     <t>Мероприятие 1.2.32.</t>
   </si>
   <si>
-    <t>Организация бемплатного горячего питания обучающихся, получающих начальное общее образование в государственных в государственных и муниципальных образовательных организациях.</t>
-  </si>
-  <si>
     <t>Мероприятие 1.2.33.</t>
   </si>
   <si>
@@ -587,18 +585,12 @@
     <t>Поддержка функционирования областных государственных организаций отдыха и оздоровления детей</t>
   </si>
   <si>
-    <t>Начальник отдела В.В. Фролов, начальнк отдела Е.А. Семейко</t>
-  </si>
-  <si>
     <t>Мероприятие 4.3.2.</t>
   </si>
   <si>
     <t>Организация круглогодичного санаторно-курортного оздоровления детей-сирот и детей, оставшихся без попечения родителей, одаренных детей, детей, находящихся в трудной жизненной ситуации, находящихся в организациях, подведомственных исполнительному органу государственной власти Воронежской области в сфере образования, науки и молодежной политики</t>
   </si>
   <si>
-    <t>Начальнк отдела Е.А. Семейко</t>
-  </si>
-  <si>
     <t>Мероприятие 4.3.3.</t>
   </si>
   <si>
@@ -906,13 +898,19 @@
   </si>
   <si>
     <t>Организация в молодежной среде фестивалей, форумов и конкурсов, направленных на профилактику этнополитического и религиозно-политического экстремизма, ксенофобии и нетерпимости</t>
+  </si>
+  <si>
+    <t>Организация бесплатного горячего питания обучающихся, получающих начальное общее образование в государственных в государственных и муниципальных образовательных организациях.</t>
+  </si>
+  <si>
+    <t>Начальник отдела В.В. Фролов, начальник отдела Е.А. Семейко</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -922,16 +920,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00008B"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1010,7 +1017,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1032,15 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,12 +1051,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1105,7 +1123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,9 +1155,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,6 +1207,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1346,108 +1400,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.19921875" customWidth="1"/>
+    <col min="2" max="2" width="51.3984375" customWidth="1"/>
+    <col min="3" max="3" width="44.3984375" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.4" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="13.7" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.4" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.15" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="32.85" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="32.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.4" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="2.4500000000000002" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="7" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="2.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.4" customHeight="1">
+    <row r="10" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1475,11 +1529,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1489,11 +1543,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1503,11 +1557,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1517,11 +1571,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1531,11 +1585,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1545,7 +1599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27.4" customHeight="1">
+    <row r="16" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1559,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32.25" customHeight="1">
+    <row r="17" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1573,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="64.5" customHeight="1">
+    <row r="18" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="159.94999999999999" customHeight="1">
+    <row r="19" spans="1:4" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="144.4" customHeight="1">
+    <row r="20" spans="1:4" ht="144.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1615,11 +1669,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1629,11 +1683,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1643,11 +1697,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1657,11 +1711,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1671,11 +1725,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1685,11 +1739,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1699,11 +1753,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1713,7 +1767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27.4" customHeight="1">
+    <row r="28" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1727,7 +1781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="32.25" customHeight="1">
+    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1741,7 +1795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="48.95" customHeight="1">
+    <row r="30" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.4" customHeight="1">
+    <row r="31" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -1769,11 +1823,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1783,11 +1837,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.45" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:4" ht="53.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1797,7 +1851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="176.45" customHeight="1">
+    <row r="34" spans="1:4" ht="176.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -1811,7 +1865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="64.5" customHeight="1">
+    <row r="35" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="127.9" customHeight="1">
+    <row r="36" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -1839,7 +1893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32.25" customHeight="1">
+    <row r="37" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -1853,7 +1907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="48.95" customHeight="1">
+    <row r="38" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -1867,11 +1921,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1881,11 +1935,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -1895,11 +1949,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -1909,11 +1963,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -1923,11 +1977,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="11" t="s">
+    <row r="43" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1937,11 +1991,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="13" t="s">
+    <row r="44" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1951,7 +2005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27.4" customHeight="1">
+    <row r="45" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1965,11 +2019,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1979,11 +2033,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="13" t="s">
+    <row r="47" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1993,7 +2047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="112.35" customHeight="1">
+    <row r="48" spans="1:4" ht="112.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
@@ -2007,12 +2061,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="96.6" customHeight="1">
+    <row r="49" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>16</v>
@@ -2021,12 +2075,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="80.099999999999994" customHeight="1">
+    <row r="50" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>16</v>
@@ -2035,12 +2089,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -2049,11 +2103,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="11" t="s">
+    <row r="52" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2063,12 +2117,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>20</v>
@@ -2077,11 +2131,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2091,11 +2145,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A55" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="11" t="s">
+    <row r="55" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2105,11 +2159,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="13" t="s">
+    <row r="56" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -2119,12 +2173,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="27.4" customHeight="1">
+    <row r="57" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>16</v>
@@ -2133,12 +2187,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>20</v>
@@ -2147,11 +2201,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2161,25 +2215,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="13" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2189,12 +2243,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="32.25" customHeight="1">
+    <row r="62" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>16</v>
@@ -2203,12 +2257,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="27.4" customHeight="1">
+    <row r="63" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>16</v>
@@ -2217,12 +2271,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="27.4" customHeight="1">
+    <row r="64" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>20</v>
@@ -2231,26 +2285,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="32.25" customHeight="1">
+    <row r="65" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>16</v>
@@ -2259,12 +2313,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="48.95" customHeight="1">
+    <row r="67" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>16</v>
@@ -2273,12 +2327,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="48.95" customHeight="1">
+    <row r="68" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>16</v>
@@ -2287,12 +2341,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48.95" customHeight="1">
+    <row r="69" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>16</v>
@@ -2301,12 +2355,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="64.5" customHeight="1">
+    <row r="70" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>16</v>
@@ -2315,12 +2369,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="32.25" customHeight="1">
+    <row r="71" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>16</v>
@@ -2329,12 +2383,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="127.9" customHeight="1">
+    <row r="72" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>16</v>
@@ -2343,12 +2397,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="96.6" customHeight="1">
+    <row r="73" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>16</v>
@@ -2357,12 +2411,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="159.94999999999999" customHeight="1">
+    <row r="74" spans="1:4" ht="160" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>16</v>
@@ -2371,12 +2425,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="32.25" customHeight="1">
+    <row r="75" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>16</v>
@@ -2385,25 +2439,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="C76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A77" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="11" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -2413,53 +2467,53 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="27.4" customHeight="1">
+    <row r="78" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="C80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -2469,25 +2523,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A82" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -2497,306 +2551,306 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="144.4" customHeight="1">
+    <row r="84" spans="1:4" ht="144.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="C85" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="4" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A86" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A90" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="112.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="112.35" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" s="3" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A105" s="10" t="s">
+      <c r="B105" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>16</v>
@@ -2805,418 +2859,418 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A106" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="11" t="s">
+    <row r="106" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D106" s="4" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="224.1" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A112" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="160" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="159.94999999999999" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="C114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="C115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="192" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="144.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="144.4" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C119" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="B122" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="B123" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B122" s="11" t="s">
+    </row>
+    <row r="124" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="C125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="C127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="C128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="112.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="96.6" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="112.35" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="112.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="112.35" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="53.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="C134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="53.45" customHeight="1">
-      <c r="A134" s="2" t="s">
+    </row>
+    <row r="135" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A135" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>16</v>
@@ -3225,26 +3279,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="80.099999999999994" customHeight="1">
+    <row r="136" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A137" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>16</v>
@@ -3253,320 +3307,320 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="32.25" customHeight="1">
+    <row r="138" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="C139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="C140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="C141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="C142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="C143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="C146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="C147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A147" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="C148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="C149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="C150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="C151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="C152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A152" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="C153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="C154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="C155" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="C156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A156" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="C157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A157" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A158" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="96.6" customHeight="1">
-      <c r="A159" s="2" t="s">
+      <c r="B160" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A160" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>20</v>
@@ -3575,25 +3629,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="80.099999999999994" customHeight="1">
-      <c r="A161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B161" s="11" t="s">
+    <row r="161" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A162" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B162" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -3603,11 +3657,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="27.4" customHeight="1">
-      <c r="A163" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B163" s="11" t="s">
+    <row r="163" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -3617,12 +3671,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="27.4" customHeight="1">
+    <row r="164" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>16</v>
@@ -3631,49 +3685,49 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="48.95" customHeight="1">
+    <row r="165" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="C166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="48.95" customHeight="1">
-      <c r="A166" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="96.6" customHeight="1">
-      <c r="A167" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="C167" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="12" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>3</v>
       </c>
@@ -3689,50 +3743,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -3742,6 +3752,50 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B122:B123"/>
   </mergeCells>
   <pageMargins left="0.39370080000000002" right="0.39370080000000002" top="0.80314960000000002" bottom="0.39370080000000002" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
